--- a/chart-type_htmlwidget-libraries.xlsx
+++ b/chart-type_htmlwidget-libraries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22000" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Chart Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Piechart</t>
   </si>
@@ -126,6 +123,24 @@
   </si>
   <si>
     <t>rhandsontable</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Heatmap</t>
+  </si>
+  <si>
+    <t>Rectangle Area</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Future</t>
   </si>
 </sst>
 </file>
@@ -440,164 +455,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="P18">
+      <c r="R16">
         <v>1</v>
       </c>
     </row>
